--- a/project/platform/云管理平台9月发布版本管控表.xlsx
+++ b/project/platform/云管理平台9月发布版本管控表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="8055"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="44">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,13 +114,85 @@
   </si>
   <si>
     <t>未完成</t>
+  </si>
+  <si>
+    <t>查询资源池详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询云主机清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用和禁用服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源池管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算资源池资源管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址资源池ip迁移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑外网ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>租户管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云磁盘创建快照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS/GW/WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webserver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载/卸载云主机磁盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云主机磁盘保存为镜像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云主机磁盘备份与恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -195,7 +270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -304,7 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,14 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -499,7 +572,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -551,7 +624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -568,13 +641,13 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -591,13 +664,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -620,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -643,7 +716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -666,7 +739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -689,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -712,7 +785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -735,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -758,7 +831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -778,6 +851,285 @@
         <v>25</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.5">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.5">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.5">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.5">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5">
+      <c r="A25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5">
+      <c r="A26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
